--- a/data/proc/scrap_lists/2010_2014/09271.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09271.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0927120110095</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0927120110095</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
